--- a/supplement/wgsimWholeSamplesOneTenthCoverage.xlsx
+++ b/supplement/wgsimWholeSamplesOneTenthCoverage.xlsx
@@ -1563,13 +1563,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1577,13 +1577,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1591,13 +1591,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1605,13 +1605,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1619,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1633,13 +1633,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1647,13 +1647,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1661,13 +1661,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1675,13 +1675,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1689,13 +1689,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1703,13 +1703,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1717,13 +1717,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1731,13 +1731,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1745,13 +1745,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
